--- a/游戏信息.xlsx
+++ b/游戏信息.xlsx
@@ -8,24 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Gitgame\xiuzhen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB97AD91-CF2F-4A48-A073-B52F423C2D35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F14F768-B881-463E-8D17-0E2998185119}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="1875" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="1185" windowWidth="7725" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="角色信息" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="86">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -244,6 +252,130 @@
   </si>
   <si>
     <t>生命/伤病/生命max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gengzuo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chuyi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tansuo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shengcun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fengren</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duanzao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mugong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shigong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yiyao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jianzhu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yuanyi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>danqing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shishu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yinlv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shushu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yiqi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>daofa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fofa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zaxue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chayi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jianfa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anqi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>changbing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duanbing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roubo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jianshu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shenfa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qimen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qishu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qinggong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>neigong</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -571,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40:D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -670,179 +802,403 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" t="str">
+        <f>"int "&amp;C18&amp;";//"&amp;B18</f>
+        <v>int gengzuo;//耕作</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" ref="D19:D51" si="0">"int "&amp;C19&amp;";//"&amp;B19</f>
+        <v>int chuyi;//厨艺</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>int tansuo;//探索</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>int shengcun;//生存</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>int fengren;//缝纫</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>int duanzao;//锻造</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>int mugong;//木工</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>int shigong;//石工</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>int yiyao;//医药</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>int jianzhu;//建筑</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>int yuanyi;//园艺</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>int danqing;//丹青</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>int shishu;//诗书</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>int yinlv;//音律</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>int shushu;//术数</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>int yiqi;//弈棋</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>int daofa;//道法</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>int fofa;//佛学</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>int zaxue;//杂学</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v>int chayi;//茶艺</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v>int jianfa;//剑法</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v>int daofa;//刀法</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="0"/>
+        <v>int anqi;//暗器</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="0"/>
+        <v>int changbing;//长兵</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>78</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="0"/>
+        <v>int duanbing;//短兵</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="0"/>
+        <v>int roubo;//肉搏</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>80</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="0"/>
+        <v>int jianshu;//箭术</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>81</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="0"/>
+        <v>int shenfa;//身法</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
+        <v>82</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="0"/>
+        <v>int qimen;//奇门</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C49" t="s">
+        <v>83</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="0"/>
+        <v>int qishu;//骑术</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>84</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="0"/>
+        <v>int qinggong;//轻功</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>46</v>
+      </c>
+      <c r="C51" t="s">
+        <v>85</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="0"/>
+        <v>int neigong;//内功</v>
       </c>
     </row>
   </sheetData>

--- a/游戏信息.xlsx
+++ b/游戏信息.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Gitgame\xiuzhen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F14F768-B881-463E-8D17-0E2998185119}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4EAAB6-59BE-4C03-9C13-43CF4277C5E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="1185" windowWidth="7725" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4755" yWindow="4215" windowWidth="14685" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="角色信息" sheetId="1" r:id="rId1"/>
@@ -703,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40:D51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/游戏信息.xlsx
+++ b/游戏信息.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Gitgame\xiuzhen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitgame\xiuzhen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4EAAB6-59BE-4C03-9C13-43CF4277C5E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312E0C47-B06A-4DA4-9F23-8365AEDA1076}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4755" yWindow="4215" windowWidth="14685" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6840" yWindow="465" windowWidth="13680" windowHeight="9533" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="角色信息" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -23,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="123">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -243,18 +242,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>气血/生命max</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>体力/生命max</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命/伤病/生命max</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gengzuo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -376,6 +363,166 @@
   </si>
   <si>
     <t>neigong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精钢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他金属</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铸铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组件1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组件2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿镐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简易锄头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金属锄头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木头，石头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简易铲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金属铲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简易斧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金属斧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简易锤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金属锤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金属锭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镰刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>犁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挖掘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砍伐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捶打</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻土</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开采</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工具技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲辕犁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长棍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短棍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作效率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体力消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐藏属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气血/max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命/伤病/max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体力/max</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -701,504 +848,777 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E51"/>
+  <dimension ref="A2:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B16"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="E3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="E4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" t="str">
+        <f>"int "&amp;C19&amp;";//"&amp;B19</f>
+        <v>int gengzuo;//耕作</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" ref="D20:D52" si="0">"int "&amp;C20&amp;";//"&amp;B20</f>
+        <v>int chuyi;//厨艺</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>int tansuo;//探索</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>int shengcun;//生存</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>int fengren;//缝纫</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>int duanzao;//锻造</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>int mugong;//木工</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>int shigong;//石工</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>int yiyao;//医药</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>int jianzhu;//建筑</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>int yuanyi;//园艺</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>int danqing;//丹青</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>int shishu;//诗书</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>int yinlv;//音律</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>int shushu;//术数</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>int yiqi;//弈棋</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>int daofa;//道法</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>int fofa;//佛学</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v>int zaxue;//杂学</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v>int chayi;//茶艺</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v>int jianfa;//剑法</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="0"/>
+        <v>int daofa;//刀法</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" t="s">
+        <v>73</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="0"/>
+        <v>int anqi;//暗器</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B44" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" t="s">
+        <v>74</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="0"/>
+        <v>int changbing;//长兵</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B45" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" t="s">
+        <v>75</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="0"/>
+        <v>int duanbing;//短兵</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B46" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" t="s">
+        <v>76</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="0"/>
+        <v>int roubo;//肉搏</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B47" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" t="s">
+        <v>77</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="0"/>
+        <v>int jianshu;//箭术</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B48" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" t="s">
+        <v>78</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="0"/>
+        <v>int shenfa;//身法</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B49" t="s">
+        <v>42</v>
+      </c>
+      <c r="C49" t="s">
+        <v>79</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="0"/>
+        <v>int qimen;//奇门</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B50" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" t="s">
+        <v>80</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="0"/>
+        <v>int qishu;//骑术</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B51" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" t="s">
+        <v>81</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="0"/>
+        <v>int qinggong;//轻功</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B52" t="s">
+        <v>46</v>
+      </c>
+      <c r="C52" t="s">
+        <v>82</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="0"/>
+        <v>int neigong;//内功</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD0A3E5-48BE-45E7-A7E6-75B6A3D69473}">
+  <dimension ref="A2:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="10.796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>114</v>
+      </c>
       <c r="B14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="C14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>90</v>
+      </c>
       <c r="B16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="B17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>104</v>
+      </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" t="str">
-        <f>"int "&amp;C18&amp;";//"&amp;B18</f>
-        <v>int gengzuo;//耕作</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" t="str">
-        <f t="shared" ref="D19:D51" si="0">"int "&amp;C19&amp;";//"&amp;B19</f>
-        <v>int chuyi;//厨艺</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" t="str">
-        <f t="shared" si="0"/>
-        <v>int tansuo;//探索</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" t="str">
-        <f t="shared" si="0"/>
-        <v>int shengcun;//生存</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" t="str">
-        <f t="shared" si="0"/>
-        <v>int fengren;//缝纫</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" t="str">
-        <f t="shared" si="0"/>
-        <v>int duanzao;//锻造</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" t="str">
-        <f t="shared" si="0"/>
-        <v>int mugong;//木工</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" t="str">
-        <f t="shared" si="0"/>
-        <v>int shigong;//石工</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26" t="str">
-        <f t="shared" si="0"/>
-        <v>int yiyao;//医药</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" t="str">
-        <f t="shared" si="0"/>
-        <v>int jianzhu;//建筑</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" t="str">
-        <f t="shared" si="0"/>
-        <v>int yuanyi;//园艺</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" t="str">
-        <f t="shared" si="0"/>
-        <v>int danqing;//丹青</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" t="str">
-        <f t="shared" si="0"/>
-        <v>int shishu;//诗书</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" t="s">
-        <v>68</v>
-      </c>
-      <c r="D32" t="str">
-        <f t="shared" si="0"/>
-        <v>int yinlv;//音律</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33" t="str">
-        <f t="shared" si="0"/>
-        <v>int shushu;//术数</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" t="s">
-        <v>70</v>
-      </c>
-      <c r="D34" t="str">
-        <f t="shared" si="0"/>
-        <v>int yiqi;//弈棋</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" t="s">
-        <v>71</v>
-      </c>
-      <c r="D35" t="str">
-        <f t="shared" si="0"/>
-        <v>int daofa;//道法</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" t="s">
-        <v>72</v>
-      </c>
-      <c r="D36" t="str">
-        <f t="shared" si="0"/>
-        <v>int fofa;//佛学</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" t="s">
-        <v>73</v>
-      </c>
-      <c r="D37" t="str">
-        <f t="shared" si="0"/>
-        <v>int zaxue;//杂学</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" t="s">
-        <v>74</v>
-      </c>
-      <c r="D38" t="str">
-        <f t="shared" si="0"/>
-        <v>int chayi;//茶艺</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" t="s">
-        <v>75</v>
-      </c>
-      <c r="D40" t="str">
-        <f t="shared" si="0"/>
-        <v>int jianfa;//剑法</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" t="s">
-        <v>71</v>
-      </c>
-      <c r="D41" t="str">
-        <f t="shared" si="0"/>
-        <v>int daofa;//刀法</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" t="s">
-        <v>76</v>
-      </c>
-      <c r="D42" t="str">
-        <f t="shared" si="0"/>
-        <v>int anqi;//暗器</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
-        <v>40</v>
-      </c>
-      <c r="C43" t="s">
-        <v>77</v>
-      </c>
-      <c r="D43" t="str">
-        <f t="shared" si="0"/>
-        <v>int changbing;//长兵</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
-        <v>41</v>
-      </c>
-      <c r="C44" t="s">
-        <v>78</v>
-      </c>
-      <c r="D44" t="str">
-        <f t="shared" si="0"/>
-        <v>int duanbing;//短兵</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
-        <v>25</v>
-      </c>
-      <c r="C45" t="s">
-        <v>79</v>
-      </c>
-      <c r="D45" t="str">
-        <f t="shared" si="0"/>
-        <v>int roubo;//肉搏</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
-        <v>26</v>
-      </c>
-      <c r="C46" t="s">
-        <v>80</v>
-      </c>
-      <c r="D46" t="str">
-        <f t="shared" si="0"/>
-        <v>int jianshu;//箭术</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
-        <v>44</v>
-      </c>
-      <c r="C47" t="s">
-        <v>81</v>
-      </c>
-      <c r="D47" t="str">
-        <f t="shared" si="0"/>
-        <v>int shenfa;//身法</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
-        <v>42</v>
-      </c>
-      <c r="C48" t="s">
-        <v>82</v>
-      </c>
-      <c r="D48" t="str">
-        <f t="shared" si="0"/>
-        <v>int qimen;//奇门</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
-        <v>43</v>
-      </c>
-      <c r="C49" t="s">
-        <v>83</v>
-      </c>
-      <c r="D49" t="str">
-        <f t="shared" si="0"/>
-        <v>int qishu;//骑术</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
-        <v>45</v>
-      </c>
-      <c r="C50" t="s">
-        <v>84</v>
-      </c>
-      <c r="D50" t="str">
-        <f t="shared" si="0"/>
-        <v>int qinggong;//轻功</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
-        <v>46</v>
-      </c>
-      <c r="C51" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" t="s">
         <v>85</v>
       </c>
-      <c r="D51" t="str">
-        <f t="shared" si="0"/>
-        <v>int neigong;//内功</v>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/游戏信息.xlsx
+++ b/游戏信息.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitgame\xiuzhen\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312E0C47-B06A-4DA4-9F23-8365AEDA1076}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6840" yWindow="465" windowWidth="13680" windowHeight="9533" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6840" yWindow="465" windowWidth="13680" windowHeight="9540"/>
   </bookViews>
   <sheets>
     <sheet name="角色信息" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="135">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -523,13 +517,61 @@
   </si>
   <si>
     <t>体力/max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WIS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GENGU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HUIGEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUYUAN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -628,7 +670,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -663,7 +705,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -840,26 +882,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -867,7 +909,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -878,7 +920,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -889,84 +931,120 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>11</v>
       </c>
+      <c r="C13" t="s">
+        <v>131</v>
+      </c>
       <c r="D13" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>14</v>
       </c>
+      <c r="C14" t="s">
+        <v>132</v>
+      </c>
       <c r="D14" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>12</v>
       </c>
+      <c r="C15" t="s">
+        <v>133</v>
+      </c>
       <c r="D15" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>13</v>
       </c>
+      <c r="C16" t="s">
+        <v>134</v>
+      </c>
       <c r="D16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>16</v>
       </c>
@@ -978,7 +1056,7 @@
         <v>int gengzuo;//耕作</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>17</v>
       </c>
@@ -990,7 +1068,7 @@
         <v>int chuyi;//厨艺</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>18</v>
       </c>
@@ -1002,7 +1080,7 @@
         <v>int tansuo;//探索</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>19</v>
       </c>
@@ -1014,7 +1092,7 @@
         <v>int shengcun;//生存</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>20</v>
       </c>
@@ -1026,7 +1104,7 @@
         <v>int fengren;//缝纫</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>21</v>
       </c>
@@ -1038,7 +1116,7 @@
         <v>int duanzao;//锻造</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>22</v>
       </c>
@@ -1050,7 +1128,7 @@
         <v>int mugong;//木工</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>23</v>
       </c>
@@ -1062,7 +1140,7 @@
         <v>int shigong;//石工</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>27</v>
       </c>
@@ -1074,7 +1152,7 @@
         <v>int yiyao;//医药</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>28</v>
       </c>
@@ -1086,7 +1164,7 @@
         <v>int jianzhu;//建筑</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>29</v>
       </c>
@@ -1098,12 +1176,12 @@
         <v>int yuanyi;//园艺</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>33</v>
       </c>
@@ -1115,7 +1193,7 @@
         <v>int danqing;//丹青</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>34</v>
       </c>
@@ -1127,7 +1205,7 @@
         <v>int shishu;//诗书</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>31</v>
       </c>
@@ -1139,7 +1217,7 @@
         <v>int yinlv;//音律</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>32</v>
       </c>
@@ -1151,7 +1229,7 @@
         <v>int shushu;//术数</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>35</v>
       </c>
@@ -1163,7 +1241,7 @@
         <v>int yiqi;//弈棋</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>36</v>
       </c>
@@ -1175,7 +1253,7 @@
         <v>int daofa;//道法</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>37</v>
       </c>
@@ -1187,7 +1265,7 @@
         <v>int fofa;//佛学</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>38</v>
       </c>
@@ -1199,7 +1277,7 @@
         <v>int zaxue;//杂学</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>39</v>
       </c>
@@ -1211,12 +1289,12 @@
         <v>int chayi;//茶艺</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>47</v>
       </c>
@@ -1228,7 +1306,7 @@
         <v>int jianfa;//剑法</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>48</v>
       </c>
@@ -1240,7 +1318,7 @@
         <v>int daofa;//刀法</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>49</v>
       </c>
@@ -1252,7 +1330,7 @@
         <v>int anqi;//暗器</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>40</v>
       </c>
@@ -1264,7 +1342,7 @@
         <v>int changbing;//长兵</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>41</v>
       </c>
@@ -1276,7 +1354,7 @@
         <v>int duanbing;//短兵</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>25</v>
       </c>
@@ -1288,7 +1366,7 @@
         <v>int roubo;//肉搏</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>26</v>
       </c>
@@ -1300,7 +1378,7 @@
         <v>int jianshu;//箭术</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>44</v>
       </c>
@@ -1312,7 +1390,7 @@
         <v>int shenfa;//身法</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>42</v>
       </c>
@@ -1324,7 +1402,7 @@
         <v>int qimen;//奇门</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>43</v>
       </c>
@@ -1336,7 +1414,7 @@
         <v>int qishu;//骑术</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>45</v>
       </c>
@@ -1348,7 +1426,7 @@
         <v>int qinggong;//轻功</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>46</v>
       </c>
@@ -1368,19 +1446,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD0A3E5-48BE-45E7-A7E6-75B6A3D69473}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>83</v>
       </c>
@@ -1394,7 +1472,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>95</v>
       </c>
@@ -1411,7 +1489,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>96</v>
       </c>
@@ -1428,7 +1506,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>98</v>
       </c>
@@ -1445,7 +1523,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>99</v>
       </c>
@@ -1462,7 +1540,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>100</v>
       </c>
@@ -1476,7 +1554,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>101</v>
       </c>
@@ -1490,7 +1568,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>102</v>
       </c>
@@ -1504,7 +1582,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>103</v>
       </c>
@@ -1518,7 +1596,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>105</v>
       </c>
@@ -1532,7 +1610,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>94</v>
       </c>
@@ -1546,7 +1624,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>106</v>
       </c>
@@ -1560,7 +1638,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>114</v>
       </c>
@@ -1571,7 +1649,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>90</v>
       </c>
@@ -1579,7 +1657,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>115</v>
       </c>
@@ -1599,7 +1677,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>104</v>
       </c>
@@ -1616,7 +1694,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>88</v>
       </c>

--- a/游戏信息.xlsx
+++ b/游戏信息.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="6840" yWindow="465" windowWidth="13680" windowHeight="9540"/>
+    <workbookView xWindow="6840" yWindow="465" windowWidth="13680" windowHeight="9540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="角色信息" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="工具" sheetId="2" r:id="rId2"/>
+    <sheet name="建筑" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="166">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -565,6 +566,108 @@
   </si>
   <si>
     <t>FUYUAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荒地</t>
+  </si>
+  <si>
+    <t>-建筑</t>
+  </si>
+  <si>
+    <t>-地基</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>耕地_旱田</t>
+  </si>
+  <si>
+    <t>小型_无建筑位，1个种植位</t>
+  </si>
+  <si>
+    <t>中型_1个建筑位，2个种植位</t>
+  </si>
+  <si>
+    <t>大型_3个建筑位，4个种植位</t>
+  </si>
+  <si>
+    <t>田埂：增加蓄水</t>
+  </si>
+  <si>
+    <t>高田埂：增加蓄水</t>
+  </si>
+  <si>
+    <t>田垄：减少耕作消耗</t>
+  </si>
+  <si>
+    <t>水车：取水，自动灌溉，需要水渠</t>
+  </si>
+  <si>
+    <t>水井：取水</t>
+  </si>
+  <si>
+    <t>翻车：取水，减少灌溉消耗</t>
+  </si>
+  <si>
+    <t>水渠：减少灌溉消耗</t>
+  </si>
+  <si>
+    <t>鱼沟：可以放养鱼，收割时增加额外产出</t>
+  </si>
+  <si>
+    <t>篱笆：避免动物破坏，种植位+1</t>
+  </si>
+  <si>
+    <t>稻草人：避免动物破坏</t>
+  </si>
+  <si>
+    <t>耕地_水田，蓄水</t>
+  </si>
+  <si>
+    <t>派遣</t>
+  </si>
+  <si>
+    <t>劳作</t>
+  </si>
+  <si>
+    <t>制造</t>
+  </si>
+  <si>
+    <t>领域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耕作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采矿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿井</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天然矿洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿坑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以继续建造增加层数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效率增加</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -572,7 +675,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -582,6 +685,21 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -608,8 +726,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -882,7 +1006,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -892,8 +1016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1704,4 +1828,170 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>160</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C27" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C28" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C29" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B30" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
 </file>
--- a/游戏信息.xlsx
+++ b/游戏信息.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="6840" yWindow="465" windowWidth="13680" windowHeight="9540" activeTab="2"/>
+    <workbookView xWindow="6840" yWindow="465" windowWidth="13680" windowHeight="9540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="角色信息" sheetId="1" r:id="rId1"/>
     <sheet name="工具" sheetId="2" r:id="rId2"/>
     <sheet name="建筑" sheetId="3" r:id="rId3"/>
+    <sheet name="地形" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="182">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -668,6 +669,70 @@
   </si>
   <si>
     <t>效率增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粮草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山脉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>码头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要塞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>军营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山贼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河流</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1834,8 +1899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1994,4 +2059,117 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
 </file>
--- a/游戏信息.xlsx
+++ b/游戏信息.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="198">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -672,14 +672,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>土地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>粮草</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -733,6 +725,78 @@
   </si>
   <si>
     <t>河流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平原</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荒地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丘陵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平原</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丘陵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开垦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开垦收益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石料，矿石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木料</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -791,7 +855,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -799,6 +863,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1071,7 +1136,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1900,7 +1965,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2063,108 +2128,184 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C13"/>
+  <dimension ref="B1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1" t="s">
+        <v>189</v>
+      </c>
+      <c r="J1" t="s">
+        <v>191</v>
+      </c>
+      <c r="K1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3">
+        <v>2</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="J2" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="J3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
         <v>167</v>
       </c>
-      <c r="C2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+      <c r="C4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F4" t="s">
+        <v>194</v>
+      </c>
+      <c r="G4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H4" t="s">
+        <v>197</v>
+      </c>
+      <c r="I4" t="s">
+        <v>195</v>
+      </c>
+      <c r="J4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
         <v>168</v>
       </c>
-      <c r="C3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+      <c r="C5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
         <v>169</v>
       </c>
-      <c r="C4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+      <c r="C6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C7" t="s">
         <v>170</v>
       </c>
-      <c r="C5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
         <v>171</v>
       </c>
-      <c r="C6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+      <c r="C9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
         <v>172</v>
-      </c>
-      <c r="C7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>172</v>
-      </c>
-      <c r="C8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>179</v>
-      </c>
-      <c r="C9" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>179</v>
-      </c>
-      <c r="C10" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>176</v>
       </c>
       <c r="C11" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C12" t="s">
         <v>28</v>
       </c>
-      <c r="C12" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
+        <v>176</v>
+      </c>
+      <c r="C13" t="s">
         <v>28</v>
-      </c>
-      <c r="C13" t="s">
-        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/游戏信息.xlsx
+++ b/游戏信息.xlsx
@@ -1,18 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitgame\xiuzhen\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498FC682-33E7-4C3B-AC66-C956A0C23A2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6840" yWindow="465" windowWidth="13680" windowHeight="9540" activeTab="3"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="角色信息" sheetId="1" r:id="rId1"/>
     <sheet name="工具" sheetId="2" r:id="rId2"/>
-    <sheet name="建筑" sheetId="3" r:id="rId3"/>
-    <sheet name="地形" sheetId="4" r:id="rId4"/>
+    <sheet name="生产模块0.1" sheetId="5" r:id="rId3"/>
+    <sheet name="建筑" sheetId="3" r:id="rId4"/>
+    <sheet name="地形" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="234">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -797,13 +804,157 @@
   </si>
   <si>
     <t>木料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工具为进行生产工作的必要资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工具需要通过工坊建筑填充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工坊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于生产的建筑，根据产出区分不同建筑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工坊填充工具和原料后，可以派遣人工进行生产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粗料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎矿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>构件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木构件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石构件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金属构件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行生产需要的相关工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工具的品质量会影响生产效率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工具会逐渐损坏，需要补充或更换工具，工具不足会极大的影响工作效率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在工坊指派的生产任务，完成后获得对于资源或道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工具类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石匠工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁匠工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伐木工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平原</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相邻地块中林地的数量&lt;=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相邻地块中林地的数量&lt;=3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1136,26 +1287,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1163,7 +1314,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1174,7 +1325,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1185,7 +1336,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -1193,7 +1344,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -1201,7 +1352,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -1209,7 +1360,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -1217,7 +1368,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -1225,7 +1376,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -1233,7 +1384,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>9</v>
       </c>
@@ -1241,7 +1392,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>10</v>
       </c>
@@ -1249,7 +1400,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>11</v>
       </c>
@@ -1260,7 +1411,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>14</v>
       </c>
@@ -1271,7 +1422,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>12</v>
       </c>
@@ -1282,7 +1433,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>13</v>
       </c>
@@ -1293,12 +1444,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>16</v>
       </c>
@@ -1310,7 +1461,7 @@
         <v>int gengzuo;//耕作</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>17</v>
       </c>
@@ -1322,7 +1473,7 @@
         <v>int chuyi;//厨艺</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
         <v>18</v>
       </c>
@@ -1334,7 +1485,7 @@
         <v>int tansuo;//探索</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>19</v>
       </c>
@@ -1346,7 +1497,7 @@
         <v>int shengcun;//生存</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>20</v>
       </c>
@@ -1358,7 +1509,7 @@
         <v>int fengren;//缝纫</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
         <v>21</v>
       </c>
@@ -1370,7 +1521,7 @@
         <v>int duanzao;//锻造</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>22</v>
       </c>
@@ -1382,7 +1533,7 @@
         <v>int mugong;//木工</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>23</v>
       </c>
@@ -1394,7 +1545,7 @@
         <v>int shigong;//石工</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>27</v>
       </c>
@@ -1406,7 +1557,7 @@
         <v>int yiyao;//医药</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
         <v>28</v>
       </c>
@@ -1418,7 +1569,7 @@
         <v>int jianzhu;//建筑</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
         <v>29</v>
       </c>
@@ -1430,12 +1581,12 @@
         <v>int yuanyi;//园艺</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>33</v>
       </c>
@@ -1447,7 +1598,7 @@
         <v>int danqing;//丹青</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>34</v>
       </c>
@@ -1459,7 +1610,7 @@
         <v>int shishu;//诗书</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
         <v>31</v>
       </c>
@@ -1471,7 +1622,7 @@
         <v>int yinlv;//音律</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
         <v>32</v>
       </c>
@@ -1483,7 +1634,7 @@
         <v>int shushu;//术数</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
         <v>35</v>
       </c>
@@ -1495,7 +1646,7 @@
         <v>int yiqi;//弈棋</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
         <v>36</v>
       </c>
@@ -1507,7 +1658,7 @@
         <v>int daofa;//道法</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
         <v>37</v>
       </c>
@@ -1519,7 +1670,7 @@
         <v>int fofa;//佛学</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
         <v>38</v>
       </c>
@@ -1531,7 +1682,7 @@
         <v>int zaxue;//杂学</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
         <v>39</v>
       </c>
@@ -1543,12 +1694,12 @@
         <v>int chayi;//茶艺</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
         <v>47</v>
       </c>
@@ -1560,7 +1711,7 @@
         <v>int jianfa;//剑法</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
         <v>48</v>
       </c>
@@ -1572,7 +1723,7 @@
         <v>int daofa;//刀法</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
         <v>49</v>
       </c>
@@ -1584,7 +1735,7 @@
         <v>int anqi;//暗器</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
         <v>40</v>
       </c>
@@ -1596,7 +1747,7 @@
         <v>int changbing;//长兵</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
         <v>41</v>
       </c>
@@ -1608,7 +1759,7 @@
         <v>int duanbing;//短兵</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
         <v>25</v>
       </c>
@@ -1620,7 +1771,7 @@
         <v>int roubo;//肉搏</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
         <v>26</v>
       </c>
@@ -1632,7 +1783,7 @@
         <v>int jianshu;//箭术</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B48" t="s">
         <v>44</v>
       </c>
@@ -1644,7 +1795,7 @@
         <v>int shenfa;//身法</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B49" t="s">
         <v>42</v>
       </c>
@@ -1656,7 +1807,7 @@
         <v>int qimen;//奇门</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
         <v>43</v>
       </c>
@@ -1668,7 +1819,7 @@
         <v>int qishu;//骑术</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B51" t="s">
         <v>45</v>
       </c>
@@ -1680,7 +1831,7 @@
         <v>int qinggong;//轻功</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B52" t="s">
         <v>46</v>
       </c>
@@ -1700,19 +1851,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>83</v>
       </c>
@@ -1726,7 +1877,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>95</v>
       </c>
@@ -1743,7 +1894,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>96</v>
       </c>
@@ -1760,7 +1911,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>98</v>
       </c>
@@ -1777,7 +1928,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>99</v>
       </c>
@@ -1794,7 +1945,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>100</v>
       </c>
@@ -1808,7 +1959,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>101</v>
       </c>
@@ -1822,7 +1973,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>102</v>
       </c>
@@ -1836,7 +1987,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>103</v>
       </c>
@@ -1850,7 +2001,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>105</v>
       </c>
@@ -1864,7 +2015,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>94</v>
       </c>
@@ -1878,7 +2029,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>106</v>
       </c>
@@ -1892,7 +2043,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>114</v>
       </c>
@@ -1903,7 +2054,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>90</v>
       </c>
@@ -1911,7 +2062,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>115</v>
       </c>
@@ -1931,7 +2082,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>104</v>
       </c>
@@ -1948,7 +2099,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>88</v>
       </c>
@@ -1961,16 +2112,151 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{711AC237-6FA0-4B55-A577-7CFEF36CC482}">
+  <dimension ref="A2:L14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="7" max="7" width="22.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I2" t="s">
+        <v>209</v>
+      </c>
+      <c r="J2" t="s">
+        <v>212</v>
+      </c>
+      <c r="L2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>199</v>
+      </c>
+      <c r="H3" t="s">
+        <v>205</v>
+      </c>
+      <c r="I3" t="s">
+        <v>167</v>
+      </c>
+      <c r="J3" t="s">
+        <v>213</v>
+      </c>
+      <c r="L3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B4" t="s">
+        <v>203</v>
+      </c>
+      <c r="H4" t="s">
+        <v>206</v>
+      </c>
+      <c r="I4" t="s">
+        <v>210</v>
+      </c>
+      <c r="J4" t="s">
+        <v>214</v>
+      </c>
+      <c r="L4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>204</v>
+      </c>
+      <c r="H5" t="s">
+        <v>207</v>
+      </c>
+      <c r="I5" t="s">
+        <v>211</v>
+      </c>
+      <c r="J5" t="s">
+        <v>215</v>
+      </c>
+      <c r="L5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="H6" t="s">
+        <v>208</v>
+      </c>
+      <c r="L6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" t="s">
+        <v>216</v>
+      </c>
+      <c r="H7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B11" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>202</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>157</v>
       </c>
@@ -1978,7 +2264,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>159</v>
       </c>
@@ -1986,17 +2272,17 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>158</v>
       </c>
@@ -2004,92 +2290,92 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B11" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B13" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B17" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B18" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B22" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B23" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B24" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B25" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>160</v>
       </c>
@@ -2100,7 +2386,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B28" s="2" t="s">
         <v>161</v>
       </c>
@@ -2108,7 +2394,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B29" s="2" t="s">
         <v>163</v>
       </c>
@@ -2116,7 +2402,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B30" s="2"/>
     </row>
   </sheetData>
@@ -2126,22 +2412,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K13"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="B1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="5.46484375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>180</v>
       </c>
@@ -2167,7 +2453,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>184</v>
       </c>
@@ -2190,7 +2476,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>166</v>
       </c>
@@ -2213,7 +2499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>167</v>
       </c>
@@ -2236,7 +2522,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>168</v>
       </c>
@@ -2244,7 +2530,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>169</v>
       </c>
@@ -2252,7 +2538,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>179</v>
       </c>
@@ -2260,7 +2546,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>173</v>
       </c>
@@ -2268,7 +2554,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>171</v>
       </c>
@@ -2276,7 +2562,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>178</v>
       </c>
@@ -2284,7 +2570,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>172</v>
       </c>
@@ -2292,7 +2578,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>175</v>
       </c>
@@ -2300,12 +2586,41 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>176</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
+        <v>229</v>
+      </c>
+      <c r="C17" t="s">
+        <v>230</v>
+      </c>
+      <c r="D17" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C18" t="s">
+        <v>232</v>
+      </c>
+      <c r="D18" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
